--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_LABCAL.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_LABCAL.XLSX
@@ -136,13 +136,13 @@
     <t>MATHEUS TAVARES DIAS DA COSTA</t>
   </si>
   <si>
+    <t>SOLANGE COELHO RODRIGUES</t>
+  </si>
+  <si>
     <t>VITOR HUGO DOS SANTOS MAIA</t>
   </si>
   <si>
     <t>HELLEN AGUIAR DE SOUZA MARQUES</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -154,13 +154,13 @@
     <t>3377</t>
   </si>
   <si>
+    <t>3566</t>
+  </si>
+  <si>
     <t>3587</t>
   </si>
   <si>
     <t>4210</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -3528,15 +3528,15 @@
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>VITOR HUGO DOS SANTOS MAIA</v>
+        <v>SOLANGE COELHO RODRIGUES</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
+        <v>VITOR HUGO DOS SANTOS MAIA</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
@@ -3555,15 +3555,15 @@
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>VITOR HUGO DOS SANTOS MAIA</v>
+        <v>SOLANGE COELHO RODRIGUES</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
+        <v>VITOR HUGO DOS SANTOS MAIA</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
@@ -3579,15 +3579,15 @@
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>VITOR HUGO DOS SANTOS MAIA</v>
+        <v>SOLANGE COELHO RODRIGUES</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
+        <v>VITOR HUGO DOS SANTOS MAIA</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3603,15 +3603,15 @@
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>VITOR HUGO DOS SANTOS MAIA</v>
+        <v>SOLANGE COELHO RODRIGUES</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
+        <v>VITOR HUGO DOS SANTOS MAIA</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3908,15 +3908,15 @@
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3587</v>
+        <v>3566</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>4210</v>
+        <v>3587</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>4210</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
@@ -3935,15 +3935,15 @@
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3587</v>
+        <v>3566</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>4210</v>
+        <v>3587</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>4210</v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
@@ -3959,15 +3959,15 @@
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3587</v>
+        <v>3566</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>4210</v>
+        <v>3587</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>4210</v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3983,15 +3983,15 @@
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3587</v>
+        <v>3566</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>4210</v>
+        <v>3587</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>4210</v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6613,15 +6613,15 @@
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>VITOR HUGO DOS SANTOS MAIA</v>
+        <v>SOLANGE COELHO RODRIGUES</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
+        <v>VITOR HUGO DOS SANTOS MAIA</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6638,15 +6638,15 @@
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>VITOR HUGO DOS SANTOS MAIA</v>
+        <v>SOLANGE COELHO RODRIGUES</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
+        <v>VITOR HUGO DOS SANTOS MAIA</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6945,15 +6945,15 @@
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3587</v>
+        <v>3566</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>4210</v>
+        <v>3587</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>4210</v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
@@ -6970,15 +6970,15 @@
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3587</v>
+        <v>3566</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>4210</v>
+        <v>3587</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>4210</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_LABCAL.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_LABCAL.XLSX
@@ -142,7 +142,7 @@
     <t>VITOR HUGO DOS SANTOS MAIA</t>
   </si>
   <si>
-    <t>HELLEN AGUIAR DE SOUZA MARQUES</t>
+    <t>HELLEN DE AGUIAR SOUZA MARQUES</t>
   </si>
   <si>
     <t> </t>
@@ -173,7 +173,7 @@
     <t>IQ_LABCAL</t>
   </si>
   <si>
-    <t>HELLEN AGUIAR DE SOUZA MARQUES</t>
+    <t>HELLEN DE AGUIAR SOUZA MARQUES</t>
   </si>
   <si>
     <t>Matr.: 4210</t>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
+        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
+        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
+        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
+        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -6326,7 +6326,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
+        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
+        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>HELLEN AGUIAR DE SOUZA MARQUES</v>
+        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_LABCAL.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_LABCAL.XLSX
@@ -136,13 +136,13 @@
     <t>MATHEUS TAVARES DIAS DA COSTA</t>
   </si>
   <si>
-    <t>SOLANGE COELHO RODRIGUES</t>
-  </si>
-  <si>
     <t>VITOR HUGO DOS SANTOS MAIA</t>
   </si>
   <si>
     <t>HELLEN DE AGUIAR SOUZA MARQUES</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -154,13 +154,13 @@
     <t>3377</t>
   </si>
   <si>
-    <t>3566</t>
-  </si>
-  <si>
     <t>3587</t>
   </si>
   <si>
     <t>4210</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -3528,15 +3528,15 @@
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>SOLANGE COELHO RODRIGUES</v>
+        <v>VITOR HUGO DOS SANTOS MAIA</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>VITOR HUGO DOS SANTOS MAIA</v>
+        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
+        <v> </v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
@@ -3555,15 +3555,15 @@
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>SOLANGE COELHO RODRIGUES</v>
+        <v>VITOR HUGO DOS SANTOS MAIA</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>VITOR HUGO DOS SANTOS MAIA</v>
+        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
+        <v> </v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
@@ -3579,15 +3579,15 @@
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>SOLANGE COELHO RODRIGUES</v>
+        <v>VITOR HUGO DOS SANTOS MAIA</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>VITOR HUGO DOS SANTOS MAIA</v>
+        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
+        <v> </v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3603,15 +3603,15 @@
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>SOLANGE COELHO RODRIGUES</v>
+        <v>VITOR HUGO DOS SANTOS MAIA</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>VITOR HUGO DOS SANTOS MAIA</v>
+        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
+        <v> </v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3908,15 +3908,15 @@
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3566</v>
+        <v>3587</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>3587</v>
+        <v>4210</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v>4210</v>
+        <v> </v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
@@ -3935,15 +3935,15 @@
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3566</v>
+        <v>3587</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>3587</v>
+        <v>4210</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v>4210</v>
+        <v> </v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
@@ -3959,15 +3959,15 @@
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3566</v>
+        <v>3587</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3587</v>
+        <v>4210</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>4210</v>
+        <v> </v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3983,15 +3983,15 @@
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3566</v>
+        <v>3587</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3587</v>
+        <v>4210</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>4210</v>
+        <v> </v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6613,15 +6613,15 @@
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>SOLANGE COELHO RODRIGUES</v>
+        <v>VITOR HUGO DOS SANTOS MAIA</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>VITOR HUGO DOS SANTOS MAIA</v>
+        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
+        <v> </v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6638,15 +6638,15 @@
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>SOLANGE COELHO RODRIGUES</v>
+        <v>VITOR HUGO DOS SANTOS MAIA</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>VITOR HUGO DOS SANTOS MAIA</v>
+        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>HELLEN DE AGUIAR SOUZA MARQUES</v>
+        <v> </v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6945,15 +6945,15 @@
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3566</v>
+        <v>3587</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3587</v>
+        <v>4210</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>4210</v>
+        <v> </v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
@@ -6970,15 +6970,15 @@
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3566</v>
+        <v>3587</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3587</v>
+        <v>4210</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>4210</v>
+        <v> </v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
